--- a/python-data-viz-in-excel-solutions.xlsx
+++ b/python-data-viz-in-excel-solutions.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD2C41-667D-41F2-8A3F-D07B00217CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920DABCD-BC9E-4480-BFB9-1EDF176FC5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" firstSheet="1" activeTab="6" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="2" r:id="rId1"/>
     <sheet name="pairplot" sheetId="3" r:id="rId2"/>
     <sheet name="kdeplot" sheetId="4" r:id="rId3"/>
     <sheet name="violinplot" sheetId="5" r:id="rId4"/>
-    <sheet name="swarmplot" sheetId="6" r:id="rId5"/>
-    <sheet name="stripplot" sheetId="7" r:id="rId6"/>
+    <sheet name="stripplot" sheetId="7" r:id="rId5"/>
+    <sheet name="swarmplot" sheetId="6" r:id="rId6"/>
     <sheet name="small-multiples" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -231,10 +231,12 @@
     <code>sns.pairplot(mpg, vars=['mpg', 'horsepower', 'weight', 'acceleration'])</code>
   </pythonScript>
   <pythonScript>
-    <code>sns.pairplot(mpg, vars=['mpg', 'horsepower', 'weight', 'acceleration'], hue='origin', diag_kind='kde')</code>
+    <code># Break plots down by origin, change diagonals to KDE
+sns.pairplot(mpg, vars=['mpg', 'horsepower', 'weight', 'acceleration'], hue='origin', diag_kind='kde')</code>
   </pythonScript>
   <pythonScript>
-    <code>sns.kdeplot(mpg['mpg'], shade=True)</code>
+    <code># Fill in area under KDE
+sns.kdeplot(mpg['mpg'], shade=True)</code>
   </pythonScript>
   <pythonScript>
     <code># Compare cumulative distributions by origin
@@ -245,30 +247,37 @@
     <code>sns.violinplot(x='origin', y='mpg', data=mpg)</code>
   </pythonScript>
   <pythonScript>
-    <code>sns.violinplot(x='origin', y='mpg', data=mpg, palette='pastel', inner='quartile')</code>
+    <code># Change colors, quartile marks
+sns.violinplot(x='origin', y='mpg', data=mpg, palette='pastel', inner='quartile')</code>
+  </pythonScript>
+  <pythonScript>
+    <code>sns.stripplot(x='origin', y='mpg', data=mpg)</code>
+  </pythonScript>
+  <pythonScript>
+    <code># Add jitter, transparency to datapoints
+sns.stripplot(x='origin', y='mpg', data=mpg, jitter=True, palette='muted', alpha=0.7)</code>
   </pythonScript>
   <pythonScript>
     <code>sns.swarmplot(x='origin', y='mpg', data=mpg)</code>
   </pythonScript>
   <pythonScript>
-    <code>sns.swarmplot(x='origin', y='mpg', data=mpg, palette='dark', order=['japan', 'usa', 'europe'])</code>
+    <code># Reorder x axis
+sns.swarmplot(x='origin', y='mpg', data=mpg, palette='dark', order=['japan', 'usa', 'europe'])</code>
   </pythonScript>
   <pythonScript>
-    <code>sns.stripplot(x='origin', y='mpg', data=mpg)</code>
-  </pythonScript>
-  <pythonScript>
-    <code>sns.stripplot(x='origin', y='mpg', data=mpg, jitter=True, palette='muted', marker='o', alpha=0.7)</code>
-  </pythonScript>
-  <pythonScript>
-    <code>g = sns.FacetGrid(mpg, col='origin')
+    <code># Create grid with column by origin 
+g = sns.FacetGrid(mpg, col='origin')
+# Map mpg by model_year scatterplot to each plot
 g.map(plt.scatter, 'model_year', 'mpg')</code>
   </pythonScript>
   <pythonScript>
-    <code>g = sns.FacetGrid(mpg, col='origin', row='cylinders')
+    <code># Set column to origin, row to cylinders
+g = sns.FacetGrid(mpg, col='origin', row='cylinders')
 g.map(plt.scatter, 'weight', 'mpg')</code>
   </pythonScript>
   <pythonScript>
-    <code>g = sns.FacetGrid(mpg, col='origin', hue='cylinders', palette='cubehelix')
+    <code># Color points by cylinders
+g = sns.FacetGrid(mpg, col='origin', hue='cylinders', palette='cubehelix')
 g.map(plt.scatter, 'mpg', 'weight').add_legend()</code>
   </pythonScript>
 </pythonScripts>
@@ -707,99 +716,6 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37FA1301-46C2-279F-F336-D1A9CD219F31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="914400" y="0"/>
-          <a:ext cx="5362575" cy="4114800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184D6463-0954-8BE2-600C-9137E9942ED7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="914400" y="5067300"/>
-          <a:ext cx="5362575" cy="4114800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -876,6 +792,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37FA1301-46C2-279F-F336-D1A9CD219F31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="0"/>
+          <a:ext cx="5362575" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>238413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184D6463-0954-8BE2-600C-9137E9942ED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="5067300"/>
+          <a:ext cx="4829175" cy="3705513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -931,9 +940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>33013</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>224517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -956,8 +965,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="914400" y="2667000"/>
-          <a:ext cx="8477250" cy="14192250"/>
+          <a:off x="1095376" y="2653393"/>
+          <a:ext cx="8238120" cy="13756821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1235,7 +1244,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=593x453 at 0x7FE1DAF5F100&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=593x453 at 0x7F5B6E000A90&gt;</v>
     <v>5</v>
   </rv>
   <rv s="3">
@@ -1254,7 +1263,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=985x986 at 0x7FE1DAFD0CD0&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=985x986 at 0x7F5B6D88C1F0&gt;</v>
     <v>9</v>
   </rv>
   <rv s="3">
@@ -1273,7 +1282,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1093x986 at 0x7FE1DA0DBA00&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1093x986 at 0x7F5B6D0D0A60&gt;</v>
     <v>13</v>
   </rv>
   <rv s="3">
@@ -1292,7 +1301,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=576x432 at 0x7FE1E9642490&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=576x432 at 0x7F5B6D037670&gt;</v>
     <v>17</v>
   </rv>
   <rv s="3">
@@ -1311,7 +1320,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7FE1DA04EA90&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F5B6CFFBE80&gt;</v>
     <v>21</v>
   </rv>
   <rv s="3">
@@ -1327,7 +1336,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7FE1D9F8A580&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F5B6CF336D0&gt;</v>
     <v>24</v>
   </rv>
   <rv s="3">
@@ -1343,7 +1352,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7FE1D9EF5580&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F5B6CECB610&gt;</v>
     <v>27</v>
   </rv>
   <rv s="3">
@@ -1359,7 +1368,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7FE1E8708760&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F5B6CD909A0&gt;</v>
     <v>30</v>
   </rv>
   <rv s="3">
@@ -1375,7 +1384,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7FE1D9E455E0&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F5B6CD26340&gt;</v>
     <v>33</v>
   </rv>
   <rv s="3">
@@ -1391,7 +1400,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7FE1D9DD0FD0&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F5B6CEA6E80&gt;</v>
     <v>36</v>
   </rv>
   <rv s="3">
@@ -1407,7 +1416,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7FE1D9D46520&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F5B6CE26370&gt;</v>
     <v>39</v>
   </rv>
   <rv s="3">
@@ -1426,7 +1435,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=903x290 at 0x7FE1D9C0DB50&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=903x290 at 0x7F5B6CBC9400&gt;</v>
     <v>43</v>
   </rv>
   <rv s="3">
@@ -1445,7 +1454,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=890x1490 at 0x7FE1D9BFABB0&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=890x1490 at 0x7F5B6CC584F0&gt;</v>
     <v>47</v>
   </rv>
   <rv s="3">
@@ -1464,7 +1473,7 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=965x290 at 0x7FE1E841BEE0&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=965x290 at 0x7F5B6C07B520&gt;</v>
     <v>51</v>
   </rv>
 </rvData>
@@ -12291,8 +12300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE6285E-1B0F-4BF8-8DE0-15A307997455}">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -12319,8 +12328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B80200B-F24A-4CA9-9F8D-25E98CD4F4EC}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -12347,8 +12356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2A6895-B015-47E1-819A-0E853EA2DDA8}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -12372,11 +12381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9EF26C-9A6F-4C1E-AE9A-21D80AEBA6B1}">
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDAE02-3DF9-43D4-83AA-007C1A765485}">
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -12387,9 +12396,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A20" t="e" cm="1" vm="10">
-        <f t="array" ref="A20">_xlfn._xlws.PY(9,1)</f>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A18" t="e" cm="1" vm="10">
+        <f t="array" ref="A18">_xlfn._xlws.PY(9,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12400,11 +12409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDAE02-3DF9-43D4-83AA-007C1A765485}">
-  <dimension ref="A1:A18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9EF26C-9A6F-4C1E-AE9A-21D80AEBA6B1}">
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -12415,9 +12424,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A18" t="e" cm="1" vm="12">
-        <f t="array" ref="A18">_xlfn._xlws.PY(11,1)</f>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A20" t="e" cm="1" vm="12">
+        <f t="array" ref="A20">_xlfn._xlws.PY(11,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12431,8 +12440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1BDB8A-7803-478E-A869-FFD915C6709F}">
   <dimension ref="A1:A67"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>

--- a/python-data-viz-in-excel-solutions.xlsx
+++ b/python-data-viz-in-excel-solutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920DABCD-BC9E-4480-BFB9-1EDF176FC5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1888354D-8ECA-4227-9F0B-14BAA02635EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" firstSheet="1" activeTab="6" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="2" r:id="rId1"/>
@@ -1914,9 +1914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90CDA04-8C43-4254-BCF8-5896515456A3}">
   <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
@@ -12300,9 +12298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE6285E-1B0F-4BF8-8DE0-15A307997455}">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
@@ -12328,9 +12324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B80200B-F24A-4CA9-9F8D-25E98CD4F4EC}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
@@ -12356,9 +12350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2A6895-B015-47E1-819A-0E853EA2DDA8}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
@@ -12384,9 +12376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDAE02-3DF9-43D4-83AA-007C1A765485}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
@@ -12412,9 +12402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9EF26C-9A6F-4C1E-AE9A-21D80AEBA6B1}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
@@ -12440,9 +12428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1BDB8A-7803-478E-A869-FFD915C6709F}">
   <dimension ref="A1:A67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
